--- a/va_facility_data_2025-02-20/David J. Thatcher VA Clinic - Facility Data.xlsx"; filename*=UTF-8''David%20J.%20Thatcher%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/David J. Thatcher VA Clinic - Facility Data.xlsx"; filename*=UTF-8''David%20J.%20Thatcher%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R985fd7c46c1441bbb357fb1a1a61db77"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc7c4c6429c034be9ad80274c51519292"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rebf224360f4345deab45b69a96e94b07"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7857a7e3f4bf4ecaa415f2aad3b38751"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9631618cc46e454ba21d2f990fd2ed0e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb0bb479a828b48d4bd2667400d1f257b"/>
   </x:sheets>
 </x:workbook>
 </file>
